--- a/test.xlsx
+++ b/test.xlsx
@@ -1,111 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects_Pascual\ScrapperSite\data_scrapper\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FA4368-C15A-4652-AE29-F6FA08BB2221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>AEGEE - European Students' Forum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                        International Non-Governmental Youth Organisation -                         Full members                        </t>
-  </si>
-  <si>
-    <t>Alliance - Alliance of European Voluntary Service Organisations</t>
-  </si>
-  <si>
-    <t>Allianssi - Finnish National Youth Council</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                        National Youth Council -                         Full members                        </t>
-  </si>
-  <si>
-    <t>ATD Fourth World</t>
-  </si>
-  <si>
-    <t>BEST - Board of European Students of Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                        International Non-Governmental Youth Organisation -                         Observers                        </t>
-  </si>
-  <si>
-    <t>BYC - British Youth Council</t>
-  </si>
-  <si>
-    <t>CEJA - European Council of Young Farmers</t>
-  </si>
-  <si>
-    <t>CGJL - National Youth Council of Luxembourg</t>
-  </si>
-  <si>
-    <t>CISV - Children's International Summer Villages</t>
-  </si>
-  <si>
-    <t>CJE - Spanish Youth Council</t>
-  </si>
-  <si>
-    <t>CNAJEP - Commitee for national and international relations of youth and non formal organisations</t>
-  </si>
-  <si>
-    <t>CNG - Italian Youth Council</t>
-  </si>
-  <si>
-    <t>CNJ - Portuguese National Youth Council</t>
-  </si>
-  <si>
-    <t>CNJC - National Youth Council of Catalonia</t>
-  </si>
-  <si>
-    <t>CNTM - National Youth Council of Moldova</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -120,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -447,145 +420,1253 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="82.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.21875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AEGEE - European Students' Forum</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Alliance - Alliance of European Voluntary Service Organisations</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Allianssi - Finnish National Youth Council</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ATD Fourth World</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BEST - Board of European Students of Technology</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Observers</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BYC - British Youth Council</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CEJA - European Council of Young Farmers</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Observers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CGJL - National Youth Council of Luxembourg</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CISV - Children's International Summer Villages</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Observers</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CJE - Spanish Youth Council</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CNAJEP - Commitee for national and international relations of youth and non formal organisations</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CNG - Italian Youth Council</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CNJ - Portuguese National Youth Council</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CNJC - National Youth Council of Catalonia</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CNTM - National Youth Council of Moldova</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CRDM - Czech Council of Children and Youth</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CTR - Romanian National Youth Council</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CYC - Cyprus Youth Council</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DBYN - Don Bosco Youth Net</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Observers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DNK - German National Committee for International Youth Work</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DNYC - Dutch National Youth Council</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DUF - Danish Youth Council</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EBCO - European Bureau for Conscientious Objection</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ECYC - European Confederation of Youth Clubs</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>EDS - European Democrat Students</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>EEE-YFU - European Educational Exchanges – Youth for Understanding</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>EFAy - European Free Alliance Youth</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Observers</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>EFIL - European Federation for Intercultural Learning</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EGEA - European Geography Association for students and young geographers</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Observers</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ENGSO Youth - European non-governmental Sports Organisation Youth</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Observers</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ENL - Estonian National Youth Council</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ESN - Erasmus Student Network</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ESU - European Students' Union</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ESYN -  hellenic National Youth Council</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ETUC Youth - European Trade Union Confederation - Youth</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>EUDY - European Union of the Deaf Youth</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>EUJS - European Union of Jewish Students</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>EYCE - Ecumenical Youth Council in Europe</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>EYP - European Youth Press</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Observers</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>FICEMEA - International Federation of Training Centres for the Promotion of Progressive Education</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Observers</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>FIMCAP - International Federation of Catholic Parochial Youth Movements</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>FJ - Forum des Jeunes</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>FYEG - Young European Greens</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>GoFor - Youth Organizations Forum - National Youth Council of Turkey</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>National Youth Council - Observers</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>IAF - The Duke of Edinburgh's International Award Foundation</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Observers</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ICYCW - International Coordination of Young Christian Workers</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Observers</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>IDEA - International Debate Education Association</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Observers</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>IFLRY - International Federation of Liberal Youth</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>IFM-SEI - International Falcon Movement - Socialist Educational International</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>IGLYO - International Lesbian, Gay, Bisexual, Transgender, Queer Youth and Student Organisation</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>IUSY - International Union of Socialist Youth</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>IYNF - International Young Naturefriends</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>JCI- Junior Chamber International Europe</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Observers</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>JECI-MIEC - International Young Catholic Students – International Movement of Catholic Students</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>JEF Europe - Young European Federalists</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jeune - The Young Entrepreneurs Organisation of the European Union</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Observers</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>JMI - Jeunesse Musicales International</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Observers</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>KNZ - National Youth Council of Malta</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>KOMS - National Youth Council of Serbia</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>LiJOT - Lithuanian Youth Council</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>LJP - The National Youth Council of Latvia</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>LNU - The Norwegian Children and Youth Council</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>LSU - National Council of Swedish Youth Organisations</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>LUF - National Youth Council of Iceland</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>LYMEC - European Liberal Youth</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MIJARC Europe - International Movement of Catholic Agricultural and Rural Youth</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MMH - Croatian Youth Network</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MSS - National Youth Council of Slovenia</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>National Youth Congress of Albania</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>National Youth Council - Observers</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>NAYORA - National Assembly of Youth Organizations of the Republic of Azerbaijan</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>NCYOG - National Council of Youth Organizations of Georgia</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>NIT - National Youth Council of Hungary</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>National Youth Council - Observers</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>NYCI - National Youth Council of Ireland</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>NYCNM - National Youth Council of North Macedonia</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>NYCUkraine - National Youth Council of Ukraine</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>NYF - National Youth Forum of Bulgaria</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>OBESSU - Organising Bureau of European School Student Unions</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ÖJV - Austrian National Youth Council</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Pax Christi International</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Observers</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Phiren Amenca</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Observers</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>PROM - Polish Council of Youth Organizations</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>RADA - Belarusian National Youth Council</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>RCY - Red Cross Red Crescent European Youth Network</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Observers</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>RdJ - Council of the German-speaking Youth of Belgium</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>National Youth Council - Observers</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>RMS - Slovak Youth Council</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>RYE - Rural Youth Europe</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SAJV/CSAJ - Swiss National Youth Council</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SCI - The Association of Service Civil International</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>TDM 2000 International</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Associate members</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>TEJO - World Esperanto Youth Organisation</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>VJR - Flemish Youth Council</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>National Youth Council - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>WAGGGS - World Association of Girl Guides and Girl Scouts</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>WOSM - World Organisation of the Scout Movement</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Y-E-N - Youth Express Network</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>YDE - Young Democrats for Europe</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Observers</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>YEE - Youth and Environment Europe</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>YEN - Youth of European Nationalities</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>YEPP - Youth of the European Peoples Party</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>YES - Young European Socialists</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>YEU - Youth for Exchange and Understanding</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>YMCA Europe - European Alliance of Young Men’s Christian Associations</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>YWCAs - European Young Women's Christian Association</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,16 @@
           <t>Type</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>E-mail</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,6 +466,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>www.aegee.org/</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        AEGEE is one of Europe’s biggest interdisciplinary student organisations. As a non-governmental, politically independent, and non-profit organisation AEGEE is open to students and young people from all faculties and disciplines. Founded in 1985 in Paris, today AEGEE has grown to a Network of 13000 AEGEEans, present in 164 cities in 39 countries all over Europe.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,6 +490,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>www.alliance-network.eu/</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The Alliance of European Voluntary Service Organisations is an International Non-Governmental Youth Organisation that represents national organisations which promote intercultural education, understanding and peace through voluntary service. The Alliance, founded in 1982, is presently made up of full, associate and candidate members in 28 countries worldwide. Each member organisation runs an annual programme of International Voluntary Projects in their own country and exchanges volunteers with each other following the Alliance Quality Charter that stresses on the added value of volunteering, its educational aspect and on following quality standards agreed by members.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -480,6 +514,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>nuorisoala.fi/</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Allianssi is the National Youth Council of Finland, with over 130 members. We are an umbrella organisation for youth organisations and youth work, providing services to our members and advocating for the well-being and inclusion of young people.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -492,6 +538,19 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>www.atd-fourthworld.org/</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        ATD Fourth World is an international organisation whose aim is to put an end to extreme poverty by ensuring access to fundamental rights for all. Founded in 1957 by Joseph Wresinski, ATD has no political or religious affiliations. Today, the organisation brings together individuals of all cultures and social origins across over 30 countries in Africa, the Americas, Asia, and Europe.
+ATD’s approach is based on daily contact with people living in exclusion due to persistent poverty. It involves supporting them as they take action to lift themselves out of poverty while forging partnerships with other stakeholders. From this experience, ATD Fourth World has learned that the fight to eradicate poverty can only succeed if it is designed, implemented, monitored, and evaluated with the people concerned.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -504,6 +563,18 @@
           <t>International Non-Governmental Youth Organisation - Observers</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>www.best.eu.org</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        BEST strives to help European students of technology to become more internationally minded, by reaching a better understanding of European cultures and developing capacities to work on an international basis. Therefore we create opportunities for the students to meet and learn from one another through our academic and non-academic events and educational symposia. "Learning makes the master", but the final goal is a good working place, therefore we offer services like an international career centre to broaden the horizons for the choice on the job market. Our priority is to offer high quality services for students all over Europe. Thus, we manage to bring all the partners in the "student - company - university" triangle closer.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -516,6 +587,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>www.byc.org.uk/</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The British Youth Council is the National Youth Council of the UK. We work on youth empowerment with young people aged 25 and under.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -528,6 +611,18 @@
           <t>International Non-Governmental Youth Organisation - Observers</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>www.ceja.eu</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        CEJA – the European Council of Young Farmers – is the voice of Europe’s next generation of farmers to the European institutions. Acting as a forum for communication and dialogue between young farmers and European decision makers, CEJA’s main objective is to promote a younger and innovative agricultural sector across the EU 28 and to create good working and living conditions for young people setting up in farming and those who are already “Young Farmers”. The main concerns of young farmers, and the focus of our activities in Brussels and beyond are issues concerning access to land, credit and production rights and strengthening education and training facilities for young people in rural areas. CEJA represents 2 million Young Farmers in Europe. We remain in regular contact with young farmers’ organisations, agricultural institutions and associations throughout Europe and worldwide. CEJA has always claimed to be independent of any political ideology.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -540,6 +635,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>www.jugendrot.lu</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The Luxembourg National Youth Council (CGJL) is the umbrella organisation of youth organisations in Luxembourg. It has more than 30 member organisations (political parties, trade unions, student unions, scout movements, youth associations...), which are active in a great variety of different areas in the youth sector. The CGJL is a privileged discussion partner towards the government and other official actors in decision-making and can as such do active lobbying for the opinions and interests of the Luxembourgish and European Youth.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -552,6 +659,16 @@
           <t>International Non-Governmental Youth Organisation - Observers</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>cisv.org/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -564,6 +681,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>www.cje.org</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The Spanish Youth Council (CJE) is a platform of youth organisations, created by law in 1983 and formed by the Youth Councils of the Autonomous Communities and youth organizations at the state level. Encouraging the participation of youth in the political, social, economic and cultural development of our State in a global environment is our essential goal, as reflected in article 48 of the Spanish Constitution. At present 60 youth entities are part of this common project. We work to achieve a plural platform that encourages reflection and exchange of ideas and experiences among the different sensibilities and ideologies that shape the reality of youth associations in our state, as well as to transfer proposals, claims and complaints that arise in the bosom of the CJE to the Administration, social agents and the media. All aimed at responding to the problems, concerns and aspirations of youth and improving their quality of life.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -576,6 +705,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>www.cnajep.asso.fr/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        As an association under the 1901 law, the Cnajep was created in 1968 following the desire of youth movements and popular education associations, belonging to very diverse horizons and sectors of activity, to meet in order to create a space for dialogue, consultation and representation with public authorities on issues concerning youth and popular education. The Cnajep brings together more than 70 national youth and popular education movements, which bring together nearly 100,000 local associations, mobilize more than 500,000 young people engaged in projects and involve more than 10 million people (children, youth, adults).
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -588,6 +729,16 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>www.consiglionazionale-giovani.it</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -600,6 +751,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>www.cnj.pt</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The Portuguese National Youth Council is composed by 43 member organisations, which represent a wide scope of national youth organisations. We are the representative platform of youth living in Portugal towards decision makers.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -612,6 +775,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>www.cnjc.cat/ca</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The National Youth Council of Catalonia (Consell Nacional de la Joventut de Catalunya) is a platform consisting of almost 90 youth-led organisations an local youth councils. Overall, we gather around 200.000 young people and mainly center our efforts into defending the rights of young people as well as covering the needs identified by our members at all levels. Our work is implemented through an intercultural and gender transforming lense, as we build our spaces and advocacy in an inclusive manner.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -624,6 +799,19 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>cntm.md/</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The National Youth Council in Moldova (CNTM), registered on 18th of February 1999, is the representation forum of the youth associative structures from the Republic of Moldova, in its relations with government structures, national and international institutions dealing with youth issues. CNTM promotes the interests of associated and non-associated young people from the Republic of Moldova, develops youth associative structures through the implementation of program activities, training, information, lobby and consulting services. 
+The member organizations of CNTM are 38 national and regional youth organizations. Our members work in the following areas: human rights, youth participation in the decision-making process, community development, non-formal education, voluntary work, social, education, health and prevention education against social exclusion, entrepreneurship, juridical training, civic education, information, mass-media, sports, culture, integration of minorities, etc. During its 22 years activity, CNTM has implemented actions and activities, oriented to promote the interests of young people, by involving them in the decisions making processes, training courses, informational campaigns, seminars, needs assessments. On the other hand, CNTM supports the youth NGOs by offering them technical, logistic and informational support. The National Youth Council of Moldova has a team of 7 staff members, all professionals in their area of expertise, and has extensive experience with different categories of young people, youth NGO’s and youth structures.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -636,6 +824,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>crdm.cz</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The Czech Council of Children and Youth (CRDM) is the National Youth Council of the Czech Republic, an umbrella organisation of 97 children and youth organisations with more than 200.000 individual members (out of which more than 170.000 children and young people up to 35 years old). We offer our members services (information, insurance, lobbying and advocacy activities), represent them towards national as well as international bodies and aim to better the conditions for youth work and overall development of children and youth in the Czech and European society. We also introduce Czech youth organisation to the topics that are being worked on at the European level, as well as bring the unique experience of our member organisations back to European and international levels. CRDM has experience in organisation of national, as well as international, exchanges, seminars and projects; project management; Structured Dialogue with Youth / EU Youth Dialogue (being the coordinator of the National Working Group for the Structured Dialogue with Youth); advocacy in the field of youth work, youth policy and conditions for the work of youth organisations; representation on events on national and European level; organisation of projects and educational activities aimed at developing competences of young people, with special focus on civic and social competences.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -648,6 +848,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ctr.ro/</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The Romania Youth Council (CTR) is the national umbrella organization recognized as the main non-governmental partner in the field of youth policies in relation with the central public authorities. CTR has as main purpose to defend and promote the rights and interests of young people from Romania, as well as to empower youth thought active participation in decision making processes. CTR represents a strong voice in the process of developing the public policies that have a direct or indirect impact on young people especially in fields like employment, education, health, civic engagement, politics and volunteering.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -660,6 +872,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>www.cyc.org.cy</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The Cyprus Youth Council (CYC) was founded in 1996 as a volunteer, non – governmental, non – profit organization. The CYC seeks to act as a platform of exchange and communication between all youth NGOs in Cyprus. Therefore, CYC organises events, seminars, workshops and activities that provide the necessary space for its members to exchange good practices, interests and experience on any youth related topic. The CYC also acts as a platform for its members for participating in European projects and it is the main stakeholder in the Structured Dialogue that seeks to promote the political participation of all Cyprus youth. The CYC’s values and objectives are based on the U.N. Constitutional Charter and the European Convention on Human Rights.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -672,6 +896,18 @@
           <t>International Non-Governmental Youth Organisation - Observers</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>www.donboscoyouth.net</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Don Bosco Youth-Net ivzw is an international network of Salesian youth work offices and youth organisations which work in the style of Don Bosco. The network assemblies 18 organisations, +1.000 employees and +9.000 volunteers, who cater for over 125.000 children and young people in 16 European countries. The task of the network is to create and promote international activities for and by young. Next to that we create possibilities for our member organisations to share their good practices and start-up new projects together. Furthermore we represent the voice of Don Bosco young people on European and international level through advocacy work. All actions which we carry out within the network are based on the pedagogical system of Don Bosco, a pedagogical approach with a tradition of over 170 years.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -684,6 +920,14 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The German National Committee for international youth work (DNK) is a joint working group of the German Federal Youth Council (DBJR), the Council of Political Youth Organisations (RPJ) and the German Sports Youth (dsj). Since 1963, the DNK has represented German youth organisations on an international level, e.g. within the European Union, the European Commission and the United Nations. The DNK provides international youth policy for young people made by young people. With their open structures based on participation, youth organisations have the best practise to reach youth.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -696,6 +940,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>www.njr.nl/en/</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The Dutch National Youth Council (DNYC) is an umbrella organization that represents 43 member organizations, ranging from an organization for rural youth, to student organizations, to organizations for youth and sexuality. The DNYC strives to empower youth from all over the Netherlands. It is constituted on the firm believe that everyone has something to offer and can use their strengths to help themselves and others. As a national youth organization the DNYC represents other youth organizations in the Netherlands and links them to relevant actors in the field. Furthermore it offers multiple projects (such as regional and national debates, guest lectures, and funding of small neighbourhood initiatives) to empower all Dutch youth, and offers projects to start discussions on difficult subjects such as mental health or xenophobia. Furthermore it actively advocates the importance of the voice of youth to policymakers and strives to include young people in the early beginnings of policy making.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -708,6 +964,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>duf.dk/</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The Danish Youth Council is a service- and interest organization for 79 children and youth organizations in Denmark. We promote the participation of youth in organizations and in democracy – locally, nationally and internationally.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -720,6 +988,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>www.ebco-beoc.org/</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The European Bureau for Conscientious Objection (EBCO) was founded in 1979 with the aim of promoting collective campaigns for the release of the imprisoned conscientious objectors and lobbying the European governments and institutions for the full recognition of the right to conscientious objection to military service. EBCO promotes the end of conscription, social spending instead of military spending, peace, conflict prevention and conflict resolution, nonviolence, antimilitarism, antidiscrimination, human rights and youth rights.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -732,6 +1012,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>www.ecyc.org</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        ECYC represents a European network of youth work and youth club organisations that practice and promote open youth work and non-formal education. With 20 nationally represented organisations in 18 Council of Europe member states, reaching 1.2 million young people, the organisation has at its heart the supporting of youth clubs and other forms of neighbourhood youth work. The vision of the European Confederation of Youth Clubs (ECYC) is to empower young people through open youth work and non-formal learning in order to promote democratic and civil society and to encourage young people to be actively involved in their communities. Involving young people and helping them participate actively in their community is the leading principle of Open Youth Work as delivered by ECYC members. ECYC uses open youth work and non-formal education methods in providing young people with the skills and knowledge to make their own informed decisions.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -744,6 +1036,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>www.edsnet.eu</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        European Democrat Students (EDS) is the official student organisation of the European People’s Party (EPP). Founded in Vienna by Scandinavian, German and Austrian students in 1961, our organisation represents over a million students and young people in 39 member organisations from 33 countries in Europe. We have been always a frontrunner in integration, fighting for open borders, united Europe and European debate in European politics. The three pillars of EDS originally stood for conservatism, liberalism and Christian democracy. Today, we grew into a large family which has an outlook that is various, rich and unique, represented by the name ‘Democrat’: Here, student organisations, political youth organisations and other centre-right organisations come together to shape modern centre-right policies for Europe.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -756,6 +1060,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>yfu.org/</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        EEE-YFU is an international non-profit organisation under Belgian law (AISBL) and the umbrella organisation of Youth For Understanding (YFU) in Europe. EEE-YFU supports its 29 European Member Organisations to have a strong impact in youth exchanges and intercultural education and be a visible and growing community. Through Educational Activities, Training &amp; Capacity Building, Advocacy and Partnerships, EEE-YFU empowers its Member Organisations to develop and retain strong networks of impactful youth workers, influences policy relevant for the mission of YFU, positions YFU as an expert and partner in intercultural learning, and develops and implements relevant and innovative responses to the challenges of an evolving society.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -768,6 +1084,18 @@
           <t>International Non-Governmental Youth Organisation - Observers</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>efay.eu/</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        EFAy is a youth political organisation made up of members who belong to organisations, movements or political parties that safeguard and promote the cultural, linguistic and national diversity of Europe.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -780,6 +1108,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>efil.afs.org/</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The European Federation for Intercultural Learning (EFIL) is the umbrella structure of AFS organisations in Europe, established in 1971. AFS is a network of exchange organisations in over 60 countries worldwide. With the help of a large number of volunteers they organise short- and long-term intercultural and voluntary service stays for over 12000 young people every year. Most of these exchanges involve deep cultural immersion of the young participants (living in a host family, attending a local school, engagement in the local community activities) and the most common time frame of the programme is a full school year. EFIL supports the 27 European national AFS organisations (plus 2 associate members: Egypt and Tunisia) by promoting synergies in the fields of global education, and providing intercultural learning opportunities to help people develop the knowledge and skills needed to create a more just and peaceful world. EFIL has a strong and consolidated expertise - powered by almost 50 years of experience - in organising seminars and training events for its members, other youth organisations, and their volunteers.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -792,6 +1132,18 @@
           <t>International Non-Governmental Youth Organisation - Observers</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>www.egea.eu</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The European Geography Association, abbreviated EGEA, is a European network of geography students and young geographers, with the intention of exchanging geographical knowledge. To achieve this, the entities of EGEA organize congresses, exchanges between the entities, national weekends, excursions, and a scientific magazine is published. The main communication platform is the website (www.egea.eu). The aims of EGEA are to offer personal development opportunities to young geographers across Europe, and enable them to fulfill their potential as young scientists. EGEA provides complementary and alternative learning opportunities, beyond formal education of geography. This is done by encouraging and enabling involvement in intercultural interaction, as well as by development of academic, scientific, cultural and professional activities intended for young geographers on terms of equality, diversity and non-discrimination. EGEA actively contributes towards the promotion of geography through its network capabilities and through strategic partnerships, with the ultimate goal to strengthen geography’s place in members’ local communities.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -804,6 +1156,18 @@
           <t>International Non-Governmental Youth Organisation - Observers</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>engsoyouth.eu/</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        We are the European youth sport organisation, the autonomous youth organisation of the European Non-Governmental Sports Organisation (ENGSO). ENGSO Youth focuses on the youth sport-for-all sector in Europe and represents young Europeans under the age of 35 in sports in 34 countries. ​ ​We are at the forefront of youth sport advocacy at European level. ENGSO Youth actively works on current youth sport issues (equal opportunities, fair play, fight against discrimination and doping, healthy lifestyle, social inclusion, sustainable development, volunteering, youth employment) with its member organisations (National Sport Confederations or National Olympic Committees), European institutions and partners from civil society. We involve a growing number of young Europeans and organisations in our work to develop ENGSO Youth capacities in more European regions, foster cross-sector cooperation, and develop projects with long-lasting, multiplying and self-perpetuating effects on current youth sport issues to leave a lasting legacy.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -816,6 +1180,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>enl.ee/</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The Estonian National Youth Council (ENL) is an umbrella organization that unites youth associations and regional youth concils operating in Estonia. The main goals of ENL are to provide advocacy and support to youth associations in legislative environment, to represent the youth policy interests of the ENL members in Estonia and internationally and to promote the active participation of young people in society. ENL participates in working groups, committees and advisory bodies, standing in the best interests of young people and representing the opinion of young people in youth associations. ENL is helping to develop the field of youth work at very different levels, from researching young people's opinions and doing advocacy to administrating grants for ENL members and regional youth councils.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -828,6 +1204,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>esn.org</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Erasmus Student Network (ESN) is the biggest student association in Europe. We are present in more than 900 Higher Education Institutions from 40 countries. ESN involves around 40,000 young people offering its services to around 220,000 international students every year. ESN operates on three levels: local, national, and international for the creation of a more mobile and flexible education environment by supporting and developing the student exchange from different levels, and providing an intercultural experience also to those students who cannot access a period abroad ("internationalisation at home").
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -840,6 +1228,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>www.esu-online.org/</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The European Students’ Union (ESU) is the umbrella organisation of 45 National Unions of Students (NUS) from 39 countries. The NUSes are open to all students in their respective country regardless of political persuasion, religion, ethnic or cultural origin, sexual orientation or social standing. Our members are also student-run, autonomous, representative and operate according to democratic principles. The aim of ESU is to represent and promote the educational, social, economic and cultural interests of students at the European level towards all relevant bodies and in particular the European Union, Bologna Follow Up Group, Council of Europe and UNESCO. Through its members, ESU represents almost 20 million students in Europe.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -852,6 +1252,16 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>esyn.gr</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -864,6 +1274,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>etuc.org</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The ETUC Youth Committee represents the young European generations in working life issues. It is a statutory body of the European Trade Union Confederation and is composed of one representative nominated by each national trade union confederation affiliated to the ETUC (90) from 39 Countries and the European Trade Union Federations (10). It is steered by a bureau of 5 elected members, 2 Vice-Presidents, a President and by an ETUC coordinator. Its objective is to make the voice of young European workers and unemployed heard inside the trade union movement and wider in the society (policy makers at EU, national and local level, employers organizations, NGOs, and other stakeholders).
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -876,6 +1298,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>eudy.info/</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        European Union of the Deaf Youth (EUDY) is a European non-profit organization whose membership comprises of 32 national associations of Deaf young people in Europe. Established in 1987, EUDY is the only organisation representing the interests of Deaf Young Europeans in Europe. EUDY strives to foster the personal development of Deaf young persons with a sign language in Europe and to further mutual understanding to advance and protect the rights of and opportunities for Deaf Young Europeans.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -888,6 +1322,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>www.eujs.org</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The European Union of Jewish Students (EUJS) is a pluralistic, inclusive and non-partisan umbrella organisation. We support Jewish student unions throughout Europe and represent its members in international institutions and organisations. Founded in 1978, we currently have 35 member organisations, spanning from Russia to Scandinavia to the United Kingdom. EUJS is led by the president, executive director, and eight board members who are elected by EUJS member organizations at the EUJS General Assembly. The EUJS headquarters are located in Brussels, Belgium.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -900,6 +1346,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>www.eyce.org</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        EYCE is a strong network of young Christians from all over Europe who seek unity between Christians and are engaged in the work for justice, peace &amp; the integrity of creation. Its goal is not to form one church structure, but to look for a means to work together despite of different denominational viewpoints. This means working together to overcome such obstacles as nationalism, xenophobia, social exclusion and proselytism. To work on these themes, EYCE regularly organises seminars, study sessions, training courses, workshops and other meetings.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -912,6 +1370,18 @@
           <t>International Non-Governmental Youth Organisation - Observers</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>www.youthpress.org</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        European Youth Press (EYP) is a network of 30 youth media organisations in Europe. It works to build a society where empowered young media makers are actively participating and contributing to the public sphere by creating fair, independent and responsible media, fostering the development of democracy, international development and a sustainable future.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -924,6 +1394,16 @@
           <t>International Non-Governmental Youth Organisation - Observers</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>www.ficemea.org</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -936,6 +1416,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>fimcap.org/en/</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        FIMCAP is the International Federation of Catholic Parochial Youth Movements and officially recognized by the Roman Curia as Association of the Faithful and full member of the European Youth Forum. It organizes together with its member organizations international spiritual, education, social and exchange activities, gives Catholic youth a strong voice in Europe and in all over the world and builds this way a better world and a living church.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -948,6 +1440,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>www.forumdesjeunes.be</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The Youth Council of the French-Speaking Community is the official advisory body and voice of the French-speaking young people in Belgium. Its role is to have young people (16-30 years old) participating in the democratic process, especially by collecting their opinion about a variety of themes, that directly or indirectly affect them, to then relieve it to the politics. The Youth Council defends young people’s interests and represents them at national and international level. The main tool the Youth Council has to make young people’s voice heard is the issuing of official notices. Then, we make sure the suggestions made by young people are followed by concrete measures helping improving their life. The Youth Council has certainly no decisional power but it has a real lobbying role to the decision makers in our country. The Youth Council is the young itching powder to the parliament members and ministers. The Youth Council has already obtained various “political victories” to ensure young people’s emancipation in society: the withdrawal of security measures targeting young people (mosquito, curfew, bootcamp, etc.); the limitation of discriminatory measures against young people regarding employment and unemployment; the introduction of lessons about affective and sexual life in school programmes; the integration of programmes of education to the media on the waves of RTBF (Belgian television and radio); etc. The Youth Council works thus on listening to young people’s concerns and on having young people participating in civic life but we also want to build a collective speech to be able to support the voice of young people.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -960,6 +1464,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>www.fyeg.org</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        FYEG is the European umbrella organisation for Young Green organisations from all over the continent, from Georgia to Ireland and from Cyprus to Norway. Our 38 member organisations comprise various backgrounds: local ecological groups, student unions, youth wings of Green parties and Green Youth NGOs. In addition, we are also the independent, official youth wing of the European Green Party (EGP). Our organisation is run by a voluntary Executive Committee, the Editorial Board of Ecosprinter (the FYEG online magazine), and the members of our working groups. The Committee and the Editorial Board are elected by our Member Organisations once every year. Anyone can join our working groups without having to be elected.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -972,6 +1488,18 @@
           <t>National Youth Council - Observers</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>www.go-for.org/</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The main aim of GoFor - National Youth Council of Turkey is to advocate the rights of young people in Turkey as well as preparing a sustainable youth policy including all young people regardless of their backgrounds and monitoring the implementation of the policy. GoFor is a network that leads in new ways; advances the sector policies; develops a system thinking between its members; creates a future for an organized youth for young people. The purpose of this network is to act as the National Youth Council that is recognized by all governmental structures. GoFor enables its members to be self-confident, independent, creative and effective organizations that make a difference in the lives of young people and their communities, as well as make a contribution to the thinking and practice in their fields.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -984,6 +1512,18 @@
           <t>International Non-Governmental Youth Organisation - Observers</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>intaward.org/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The Award equips young people for life The Duke of Edinburgh’s International Award Foundation drives and supports the Award’s global growth, so more young people can undertake the world’s leading youth achievement award. Working through our network of Award Operators in more than 130 countries and territories, we are creating new ways and places for young people to do the Award, using innovative online tools. We lead the Award’s entry into new countries and territories, ensuring consistency around the world. We work to increase global awareness of the value of non-formal education. This in turn creates demand for the Award, which is one way that young people’s development outside the classroom can be recognised worldwide.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -996,6 +1536,18 @@
           <t>International Non-Governmental Youth Organisation - Observers</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>www.cijoc.org</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        International Coordination of Young Christian Workers OFFICIAL NAME International Coordination of Young Christian Workers ACRONYM ICYCW ESTABLISHED 1987 HISTORY The Young Christian Workers (YCW) was founded in Belgium in 1925 at the initiative of Cardinal Joseph Cardijn who was then a young priest. The experience of this group of young working men and women led by him rapidly spread to many other countries in all five continents, and in 1957 International Young Christian Workers was officially established. YCW is a learn-by-doing movement, based on the "see, judge, act" method, and works to protect the dignity, due to all sons and daughters of God, of young workers and unemployed men and women, living in situations of exclusion, exploitation and repression. Following a radical internal crisis which sadly split the movement, in 1987 at the World Council of national YCW movements held at Frascati (Rome), the ICYCW was founded. The purpose of this new structure is to coordinate and support the work of the national movements in their evangelisation of young workers, faithful to the thinking of Joseph Cardijn. Previously recognised by the Holy See, the ICYCW was confirmed as an International Association of the Faithful by the Pontifical Council for the Laity’s decree of 13 November 2004. IDENTITY The identity of ICYCW is defined by the aims shared by all the YCW movements: showing young people that genuine freedom and happiness are to be found in the truth of the life, death and resurrection of Jesus Christ, and the gift of the Holy Spirit, and to urge them to work for true liberation by bearing witness to the presence of God in the labour world. The YCW serves young manual and office workers, student workers, the unemployed or precariously employed, of both sexes. According to Cardijn’s intuition of a movement "of young people, by young people and for young people", all the organisational aspects are handled by the young members themselves. It provides a continuing learning process in which they reflect and organise specific actions designed to bring about change. The experience in educating and giving responsibilities to its membership provided by the YCW through the "revision of life" covers every dimension of human existence, aimed ultimately at leading young people to commit themselves actively as workers and believers. ORGANISATION As a coordination structure ICYCW respects the organisational and operational autonomy of the national member movements committed to meeting the specific needs and operating in the particular living and working situations of young workers in their countries. The national movements, created by the federations, dioceses or zones which comprise the grassroots groups living in parishes and neighbourhoods, hold periodic meetings where necessary and possible, giving rise to continental or regional Coordinations. The decision-making body of the ICYCW is the International Council which convenes every four years, and to which all the member movements, associations or partners are invited. The International Secretariat serves the national movements, and comprises four officials elected by them, accompanied by an Ecclesiastical Assistant. The Secretariat facilitates exchange of information, teaching aids, staff and experience between the movements; it helps to provide training for officials and accompanying persons; it works to spread the YCW worldwide; it supports and coordinates development activities; it speaks out on behalf of the life, experience and problems of young workers at the international level. MEMBERSHIP ICYCW comprises 69 member, associate and partner movements in 61 countries as follows: Africa (27), Asia (8), Europe (11), Middle East (4), and South America (11). PUBLICATIONS Nouvelles, a six-month information bulletin; Jeunesse sans Frontières, published three times a year; Aumôniers, a six monthly magazine which is also used for teaching purposes. WEB SITE http://www.cijoc.org HEADQUARTERS CIJOC-ICYCW Via dei Barbieri, 22 - 00186 Rome - Italy Tel. and Fax [+39] 06.6865259 Email: cijoc@tin.it
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1008,6 +1560,18 @@
           <t>International Non-Governmental Youth Organisation - Observers</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>idebate.net</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        IDEA empowers young people in 21st century skills through debate edaucation. Via trainings and events youth learn to think critical, analyse problems in a logical way, develop arguments and to speak up and listen to others. IDEA connects young people at all levrls of the international society and they build friendship, intercultural communication skills and develop emphathy and understanding for those who think different. IDEA also support young people to be connected to autorities. We engage them so to get positive experience to participate as active citizens.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1020,6 +1584,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>www.iflry.org</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        IFLRY is the federation of young liberals across the world. We commits ourselves to the active advancement of human rights, democracy, stable property rights, rule of law, and free trade. We organize activities with the purpose of empower young liberals to take action on these liberal issues – everywhere.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1032,6 +1608,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>www.ifm-sei.org</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The International Falcon Movement – Socialist Educational International is an international educational movement working to empower children and young people to take an active role in society and fight for their rights. We are an umbrella organisation for child and youth-led movements all over the world, educating on the basis of our socialist values of equality, democracy, peace, solidarity, co-operation, anti-capitalism and friendship. Through our member organisations and our international activities, we aim to ensure that children and young people are well informed about their rights and are empowered to ensure they are respected. We educate children and young people to be critical thinkers and active decision-makers in their lives. To reach this goal, we organise a variety of activities using non-formal education, participatory and inclusive methodologies including seminars, training courses, international camps and conferences.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1044,6 +1632,16 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>www.iglyo.org</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1056,6 +1654,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>www.iusy.org</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        IUSY is the oldest and biggest political party youth organisation in the world that stands as an umbrella organisations for all socialist, social democratic and labour party youth. IUSY's main field of activity is in the promotion of democracy, human rights, and youth policy.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1068,6 +1678,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>www.iynf.org</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        IYNF is an international organisation bringing together Young Naturefriends and their organisations across Europe. It was established in 1975 and currently has 16 member and 10 partner organisations. With more than 120.000 young members organised in over a thousand local groups, it is one of the major European youth organisations.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1080,6 +1702,18 @@
           <t>International Non-Governmental Youth Organisation - Observers</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>europe.jci.cc/</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        JCI (Junior Chamber International) Europe is a leading non-profit membership organization of young active citizens—many of them leaders and entrepreneurs—present in 34 European countries with over 25,000 members across the region. Engaging in activities focused on sustainable development locally and globally, JCI members take responsibility for their communities while empowering themselves through leadership and action.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1092,6 +1726,16 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>www.jecimiec.eu/</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1104,6 +1748,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>www.jef.eu/</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The goal of JEF is the creation of a democratic European federation as a crucial ingredient for peace, a guarantee for a more free, just and democratic society and a first step towards a world federation. JEF promotes true European Citizenship, works for the widening and deepening of the EU and strives for a more just and integrated society on the European continent. It is independent from all political parties and ideologies and pursues its objectives autonomously. Nevertheless, the organisation can of course participate in the exchange of opinions and experiences with political movements, public institutions, associations and the general public. JEF aims at bringing Europe closer to the Citizens and the Citizens closer to Europe. To this end, the organisation aspires to develop a better understanding of European Federalism, advances the implementation of the federalist ideals and concentrates its action on the achievement of international democracy and efficient, democratic and transparent decision-making through respect for federal principles in Europe and beyond.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1116,6 +1772,18 @@
           <t>International Non-Governmental Youth Organisation - Observers</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>jeune-europe.org/</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        JEUNE is the biggest organization representing young entrepreneurs across Europe reaching more than 1,660,000 passionate young people throughout Europe. Composed of national associations spreading over the whole continent, it enjoys pan-European and global access and visibility, effectively lobbying at all levels, with knowledge and connections that continuously enhance the capacity to effectively address the young entrepreneurs’ needs. Its network spans from the highest European and EU institutions to most of the world’s most important business platforms. Founded in 1994, JEUNE is composed by a series of national and local young entrepreneurs’ associations and foundations which share its mission and values, seeing entrepreneurship as a core asset for the development of the business world.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1128,6 +1796,18 @@
           <t>International Non-Governmental Youth Organisation - Observers</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>www.jmi.net</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        JM International (JMI) is a global network of NGOs that provide opportunities for young people and children to develop through music across all boundaries. Open to all styles of music, we work for and with youth, harnessing the power of music to bridge social, geographical and cultural divides, creating an international platform for intercultural dialogue and acceptance. With a vast array of activities, JMI has established four priority activity fields: Young Musicians, Young Audiences, Youth Empowerment and Youth Orchestras and Ensembles. With 73 member organisations in 61 countries, JMI is a global network providing opportunities for young people to engage with music. The JMI network reaches over 7 million young people aged 13-30 per year through more than 40,000 activities, embracing all styles of music and coordinating cross-border exchange opportunities on the international level.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1140,6 +1820,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>knz.org.mt</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The National Youth Council is a policy based representative body for Youth and Youth Organisations in Malta and Gozo aimed at promoting and working for youth rights.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1152,6 +1844,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>koms.rs</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        National Youth Council of Serbia was founded on 12th March, 2011 as the highest independent representative body of youth in Serbia common objectives to: - Strengthen negotiation positions of youth in relation to the State and its youth policies - Improve mechanisms for the participation of youth in decision-making processes - Improve mechanisms for representation of global socioeconomic, educational, cultural and other interests of youth - Help youth and youth organizations be more informed – ensuring greater and more comprehensive information flow - Provide basis for the participation of youth in international forums
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1164,6 +1868,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>www.lijot.lt</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Lithuanian Youth Council (LiJOT) – the biggest non-governmental, non-profit umbrella structure for Lithuanian national youth organizations and regional unions of youth organizations. LiJOT was founded on the 19th of September 1992. Currently LiJOT has 68 members (non-governmental youth organizations), and represents more than 200 000 young people in Lithuania.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1176,6 +1892,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>www.ljp.lv</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        LJP is an umbrella organisation for youth organisations and organisations that work with young people and has 25 year experience on youth participation. Our main work is to highlight youth voice in the policy making process in local, national and international policy.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1188,6 +1916,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>lnu.no</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        LNU is an umbrella organization for the children and youth organizations in Norway. We work to strengthen youth organizations through advocacy for sufficient funding, capacity building and administering grants to provide funding for youth-led activities. We represent our member organizations both nationally and internationally on matters of common interest. Furthermore LNU aims to ensure that young people are heard in all political processes through real and meaningful youth participation and political representation.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1200,6 +1940,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>www.lsu.se</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        LSU - National Council of Swedish Youth Organisations is an umbrella organization that today brings together 86 national youth organizations. We are an idea-based, non party-political and religiously independent organization with the task of strengthening young people's democratic organization with diversity and human rights as a starting point.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1212,6 +1964,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>luf.is/</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Landssamband ungmennafélaga (LUF) is the National Youth Council (NYC) of Iceland, founded in 2004 and has 41 member organisations. LUF is a platform of cooperation and consultation for youth NGOs. LUF's vision is a society where young people enjoy equal rights, are free from discrimination and respected as active democratic citizens where they are included in all policy and decision-making processes. LUF’s mission is to be committed and to ensure that the voice of young people is heard. LUF advocates for the common interest of youth and acts as a stakeholder for young people in Iceland, including representing them abroad. LUF works to strengthen youth work and to empower young people in society.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1224,6 +1988,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>www.lymec.eu</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The European Liberal Youth, abbreviated as LYMEC, is a pan-European youth organisation seeking to promote liberal values throughout the EU as the youth organisation of the ALDE Party and its parliamentary group in the European Parliament (ALDE, Alliance of Liberals and Democrats for Europe). Involving about 150,000 members from 60 organisations in 39 countries, LYMEC is made up of Member Organisations (MO) and Individual Membership (IM) and it is active across the breadth and diversity of the European continent. Our central aim is the creation of a liberal and federal Europe.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1236,6 +2012,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>mijarceurope.net/</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        MIJARC Europe is a non-governmental organisation for rural youth, by rural youth. We promote sustainable agricultural, rural and international development, European citizenship, youth policies, gender equality, environmental protection, interculturality and human rights. Considering the Christian values, we strive to implement and raise awareness about these issues and goals by facilitating inter-cultural exchanges, camps, seminars and non-formal learning opportunities in a sustainable and culturally sensitive manner. Employing our methodology of 'see-judge-act', we encourage the participation of young people to build the Europe of tomorrow.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1248,6 +2036,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>www.mmh.hr/</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        MMH is democratic, representative and inclusive, and has national and international recognition as such. It gathers national and local non-governmental youth organizations in the Republic of Croatia which have voluntarily joined the Network. MMH was established out of the need for cooperation and improved communication among youth organizations, regardless of their programme identifications, organizational structure, and in full respect of their political, world-view, racial, national, sexual, religious and cultural identifications and identifications of young people which they represent or advocate, for the purpose of effective and efficient advocating of interests and needs of young people in Croatia and building partnerships with governmental institutions in creating and implementing youth policy. MMH is based on democratic decision-making and public work, openness to all interested youth organizations and initiatives, respect for integrity and independence of its members, support to local youth organizations and initiatives, building responsible partnerships with other interested organizations, institutions and bodies of national and local governments, affirmation of youth and their interests and needs, promotion of tolerance and mutual respect, protection of human and minority rights, promotion of healthy life styles, affirmation of self-awareness and interest of young people for active and responsible participation in society and public decision-making.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1260,6 +2060,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>mss.si/</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The National Youth Council of Slovenia (MSS) is an umbrella organization of 13 national youth organisations in Slovenia. In Slovenia the MSS has been leading the process of strengthening the youth sector nation-wide and has been strongly involved in all stages of youth policy creation since its establishment in 1990. Its regular activities are consulting with the authorities in the field of legislation relevant for youth, informing young people and youth organizations, organizing educational activities on different topics, researching and publishing on youth topics, preparing local, regional and national activities for the promotion of the MSS and youth activities such as campaigns, conferences, round tables, meetings with decision makers, thematic meetings of organizations in the field of youth work etc. The MSS is also well connected internationally, especially in the context of the in European Youth Forum and has reliable partners all over the Europe. It focuses its attention especially to the following topics: participation, youth education, youth employment, youth associations, housing, voluntarism, health, environment, mobility, non-formal education and information. In the past years, the MSS has developed new methods of ensuring the capacity building within the MSS and its member organisations. In 2009, it established a Commission for Youth Policies with over 40 members - representatives of its Board and the office and Member Organizations. The Commission prepares and distributes policy papers in the field mentioned above. The policy papers on youth organizations are of particular importance as their aim is to establish good conditions for operation and development for member organizations. They have served as a basis for the development of the National programme on youth. The MSS is running a process of structured dialogue on national level and is from 2008 responsible for national consultations of the structured dialogue considering the EU guidance via the European Steering Committee. The MSS has also conducted 4 and co- managed 1 national structured dialogue projects. Each of national events gathered approximately 80 young people (together 300) and on regional level more than 550 young people who participated in preparing final positions especially in the field of employability. In 2009, MSS established its own Pool of Trainers – a working group of approximately 30 trainers who meets on regular basis to discuss the developments in the non-formal education and share their knowledge and experience. All MSS’s seminars, trainings and workshops are conducted by the Pool members. One of the Pool functions is to transfer the knowledge to younger trainers, especially on leadership in youth organizations, project management, public relation, human rights etc. Regarding participating with Eastern Partnership countries, MSS is working with them trough European Youth Forum. We are the coordinators supporting the local youth councils and other local activities.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1272,6 +2084,18 @@
           <t>National Youth Council - Observers</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>krk.al/</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        National Youth Congress (NYC) of Albania is a youth umbrella organization – a union of youth organizations, informal groups, youth forums of political parties, with the aim of exchanging information, highlighting youth issues, lobbying and advocating for solving these issues and the provision of capacity building for all entities involved in the network. NYC Albania was established in March 2013 in Tirana, in the presence of over 30 organizations at the national level. This network was initiated with the initiative of two foreign foundations: Friedrich Ebert Stiftung and Olof Palme International.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1284,6 +2108,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>www.nayora.az</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The National Assembly of Youth Organizations of the Republic of Azerbaijan (NAYORA) is the leading youth organization in Azerbaijan since 1995 which unites 147 member organizations as the only confederative structure of youth organizations in the country and the only coordination and co-operational centre. The main goal of the organization is to coordinate the activities of member youth organizations, create conditions for their development, try to realize the interests of member organizations at the national, regional and international levels, and work together in the field of solving youth problems and protecting their rights. At the national level, we are strongly committed to contribute to the effective implementation of the youth policy and always eager to build partnership with various stakeholders in this regard. We also work with international institutions and donors such as Council of Europe, European Youth Foundation, European Union, UNICEF, UNDP, UNFPA, UN Woman, German Federal Foreign Office, Canada Fund for Local Initiatives and etc. to implement projects and activities addressing the youth issues.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1296,6 +2132,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>www.youthcouncil.ge</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        NCYOG was founded in 1995. It is a platform of youth organizations in Georgia and represents 55 youth organizations for today, which brings together more than 5000 young people from different communities. NCYOG works to empower and support youth organizations and youth in Georgia to be actively involved in civil society, political or social life, To advocate youth interests and needs in order to improve their own lives.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1308,6 +2156,18 @@
           <t>National Youth Council - Observers</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ifjusagitanacs.hu</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The NIT is a forum established with the goal of creating discussion among young people and their organizations as well as with domestic and international actors, decision makers and organizations. Its major objectives include providing the highest level of representation of the youth in general and their organizations in particular, participating in the formation and development of policies regarding issues related to the youth, and acting as a strong and united advocate of young people in relation to the government in power. The NIT is an umbrella organization for youth organizations operating in Hungary, aiming to improve domestic youth policy in close cooperation with Hungarian youth organizations abroad. The NIT is a democratically organized, politically independent, transparent organization that is open for organizations wishing to join.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1320,6 +2180,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>www.youth.ie</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        NYCI is a membership organisation that represents the shared interests of voluntary youth organisations and uses our collective expertise to act on issues that impact on young people. We do this by: Representing the shared interests of voluntary youth organisations. Building solidarity among our members. Advocating on issues that impact on the lives of young people. Promoting the development of evidence informed high quality specialist youth work practice. Capacity building and professional development.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1332,6 +2204,16 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>www.nms.org.mk</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1344,6 +2226,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>nycukraine.org</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The Public Union “NATIONAL YOUTH COUNCIL OF UKRAINE” is national youth platform established to revive youth movement in Ukraine. The platform is established by the leading international and national youth organizations to promote and protect the youth rights all over Ukraine and on the international level. The main goal of the NYCU: to consolidate and develop democratic youth NGOs of Ukraine for protection and representation of the interests of young people at the national and international levels. Platform unites over 106 youth organizations: All-Ukrainian youth NGOs and local youth NGOs all over Ukraine. NYCUkraine has Branches in 16 oblast (regions) of Ukraine. NYCUkraine works on youth policy development on local, regional and national level, youth rights development and protections, youth participation, surveys and researches on youth issues (Youth index in Ukraine, Youth Index in EaP), position papers, amendments and recommendations to the Action Plans, Strategies of governmental structures, development of youth work in Ukraine, involvement of young people into decision-making processes and democratic processes, representation and protection of position of Ukrainian youth and taking part in the creation of the global youth policy. NYCUkraine organizes capacity-building trainings for member organizations, seminars, conferences, forums on different youth issues,international events etc. NYCUkraine is the member of the European Youth Forum. The European Youth Forum is the platform of the national youth councils and international NGOs. National Youth Council of Ukraine is member of International Youth Union «Great Silk Way» NYCUkraine is coordinator of Eurodesk in Ukraine. NYCUkraine works in the frame of Eastern partnership, Black sea region, Visegrad cooperation, cooperates with CoE, UNICEF, OSCE, Great Silk way, National Youth Councils of other countries.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1356,6 +2250,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>nmf.bg/</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The National Youth Forum (NYF) is a youth umbrella organization, the biggest formal youth platform in Bulgaria uniting 41 youth organizations. The main aim of the NYF is to represent and advocate for its member youth organizations and to cooperate with policy makers in the development of quality youth policies. The activities of the NYF are aimed at maintaining the role of youth organizations and young people and capacity-building for their participation in social–political processes. The NYF conducts various activities within its strategic priorities Education, Youth Employment, Active citizenship, Demographic development, Sustainable development and Healthcare. The organisation's fields of work include Local youth work and youth policies; Structured Dialogue; International Cooperation; Volunteering; Varna 2017 - European Youth Capital.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1368,6 +2274,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>www.obessu.org</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The Organising Bureau of European School Student Unions (OBESSU) is the platform for cooperation between the national school student unions active in general secondary and secondary vocational education in Europe. It was founded in April 1975 in Dublin, Ireland and brings together Member, Candidate and Affiliate Organisations from all over Europe. All Member Organisations are independent, national, representative and democratic school student organisations.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1380,6 +2298,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>www.bjv.at</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The Austrian National Youth Council is the official and legally established representative body of children and youth in Austria. Together with our member organisations we are a strong voice for the diverse interests and ideas of young people. Regarding youth issues we have the status of a social partner. This means that we take part in political negotiations on behalf of young people. We work on a number of international projects and we are an active member of the European Youth Forum.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1392,6 +2322,18 @@
           <t>International Non-Governmental Youth Organisation - Observers</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>paxchristi.net/</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Pax Christi International is a fiath based peace movement with 120 member organisations worldwide that promotes peace, respect of human rights, justice &amp; reconciliation throughout the world. Grounded in the belief that peace is possible and that vicious cycles of violence and injustice can be broken, Pax Christi International addresses the root causes &amp; destructive consequences of violent conflict and war.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1404,6 +2346,19 @@
           <t>International Non-Governmental Youth Organisation - Observers</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>phirenamenca.eu</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        (Membership Status: Candidate) 
+The Phiren Amenca (Phiren Amenca from Romani language - Walk with us) International Network is a network of Roma and non-Roma volunteers and voluntary service organizations creating opportunities for non-formal education, dialogue and engagement to challenge stereotypes and racism. Phiren Amenca (PA) has 11 Member organisations from 10 European countries. The network has a secretariat based both in Budapest and Brussels with the core team allocated in the Budapest office. Since the network was established (November 2010) we managed to send, receive and coordinate more than 400 Roma and non-Roma volunteers across Europe. Annually Phiren Amenca is providing a number of international training on topics such as fighting stereotypes and antigypsyism among young people, responding to hate speech online, promoting active citizenship and participation, and others. Phiren Amenca's team and experts have developed a number of publications (guidelines, manuals, researches and reports) that are accessible online at our webpage and can be multiplied by other youth organisations and workers as good practices. We are closely working and cooperating with the Council of Europe, the European Commission (DG JUST), the European Parliament, a number of youth, human-rights and Roma civil society networks and organisations. We are proud that the Phiren Amenca International Network has been an official partner of the European Youth Event - EYE since its very beginning in 2014 and that we kept this partnership until today as we find it important to mainstream the issues we are working on among European youth.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1416,6 +2371,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>prom.info.pl</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The Polish Council of Youth Organizations (established in 2011) is a forum for cooperation of Polish non-governmental youth organizations. The aim of PROM is to support the participation of young people in public life, to inform the public about the condition of youth policy in Poland and to represent the member organizations. However, the most important goal is to undertake actions in favour of the creation of a coherent and modern youth policy in Poland. PROM is created by over a quarter of million of young people people in member organizations, which are associations and foundations operating on national, regional and local level. PROM also includes a structure of Permament Team for Youth Councils which is the only form of association of local youth councils established as advisory bodies within the municipalities. This is a space for discussion, exchange of experiences and the possibility for their involvement in co-creation of youth policy at the national level. From the beginning of its existence, PROM is responsible for the implementation of the EU Youth Dialogue (formerly: Structured Dialgue), which is a tool for communication between young people and the decision-makers at the European level. PROM is the official representative of Polish youth at EU Youth Conferences and a member of the European Youth Forum.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1428,6 +2395,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>www.rada.fm</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Belarusian National Youth Council RADA is a voluntary union of 32 youth associations, being created with the purpose of consolidating of youth organizations and initiatives of Belarus. “RADA” operates in the areas of representation, promotion and defending common interests and freedoms of youth organizations and young people of Belarus. Unfortunately, because of the political situation in the country and restrictions imposed by the state on the freedom of association, the Belarusian National Youth Council was liquidated in 2006 by the decision of the Supreme Court of the Republic of Belarus. Since then RADA has been operating underground as many other youth organizations and activists repressed by the authorities. In 2014, RADA registered a technical office in Lithuania in order to provide legal safety and to make its work more transparent. Regardless the unfavorable conditions created for the civil society organizations in the country, RADA continues its work for the benefit of the Belarusian youth and Belarus.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1440,6 +2419,16 @@
           <t>International Non-Governmental Youth Organisation - Observers</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ifrc.org</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1452,6 +2441,18 @@
           <t>National Youth Council - Observers</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>www.rdj.be</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The RdJ represents the interests of young people in the German-speaking community thanks to the delegates of the differen youth institutions. These delegatues are connected to the basic society and know the problems and desires of young people. Moreover, we act like an advisory body for the government and for instance, the government has to ask for our opinion when changing the youth decree. We also give reports for other bills or give facts and figures about the situation of young people in the German-speaking community. The RdJ and its working groups organize projects and events in order to inform or sensitize young people, so that they can build their own opinion. We act thus like the link between young people and politics: we hear the interests and needs of young people, communicate them to the government, exchange with it in order to find good solutions and organize projects and events for young people.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1464,6 +2465,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>www.mladez.sk</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The Youth Council of Slovakia (RmS) brings together non-governmental organizations dedicated to children and youth. They are currently covered by 25, each of which is formally registered as a civic association or non-profit organization. They all bring together more than 65,000 children and young people. RmS was founded in 1990 as a civic association. It has been operating at national level since its inception, and it covers children's and youth organizations, regardless of their political beliefs, religion, nationality or ethnicity.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1476,6 +2489,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>www.ruralyoutheurope.com</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Rural Youth Europe (RYEurope) is an European Non-Governmental Organisation for rural youth. Established in 1957, it functions as an umbrella for youth organisations working to promote and activate young people in the countryside. It provides international training possibilities and works as an intermediary between national organisations, youth organisations and public institutions on an European level. Rural Youth Europe is a member-led organisation: democratically constituted and led by young people for young people.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1488,6 +2513,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>www.sajv.ch/</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        SAJV is the umbrella organisation of around 60 youth organisations in Switzerland. It is promoting the interest of youth towards politics and the public. The focus topics for 2023-2026 are: Engaged youth, our future and inclusion.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1500,6 +2537,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>sci.ngo</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        SCI’s vision is a world of peace; social justice and sustainable development, where all people live together with mutual respect and without recourse to any form of violence to solve conflict. SCI’s mission is to promote a culture of peace by organising international volunteering projects with local and global impact.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1512,6 +2561,18 @@
           <t>Associate members</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>tdm2000international.org</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        TDM 2000 International is an European NGO working on development of strategies to tackle issues affecting European societies, through the involvement and empowerment of youth organizations, youngsters and community as a whole. The network and its members thus strive towards a better society through innovative ideas contributing to social cohesion. TDM 2000 International promotes, among other things, structured dialogue at the European level, supporting youth in being active in the decision-making processes of their communities and Europe and making them meet with policy makers and other stakeholders, gathering their ideas and promoting the actions and opportunities of the EU dedicated to them and to EU citizens in general. The number of our members and geographical impact is constantly growing: currently we officially count 29 members in 24 countries, though we cooperate also with more entities in Europe and beyond. As an umbrella organization, we support the growth of our members by creating and providing tools to foster their empowerment, supporting the development of the young people they work with, thus contributing, through concerted strategies, in the development of youth work in Europe. We work with NFE at European level, promoting European Union and its programmes, and working on spreading concepts such as: tolerance, respect, solidarity, intercultural dialogue, active participation and European citizenship, striving for inclusive and sustainable growth. Our staff has a broad experience in the fields of Non Formal Education, International Mobility and Project Management. Moreover, we have among them key experts in the fields of financial management, training and education, inclusion of disadvantaged groups, journalism and communication, lobbying and dialogue with policy makers, graphic designing and visibility and dissemination.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1524,6 +2585,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>www.tejo.org/</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        TEJO was founded in 1938 and is an umbrella structure of 43 youth organisations with members in more than 102 countries. In 2016, it was registered as an autonomous NGO in the Netherlands. Its mission is to promote Esperanto as a solution to the global communication problem. It defends cultural richness of language diversity, human rights of language minorities and global understanding, advocating for intercultural communication and dialogue, with a special focus on empowering young people. TEJO is a global youth organisation, which provides a platform for coordination and cooperation and promotes active participation of youth in the society by strengthening youth associative structures, implementing educational and advocacy programs, as well as representing youth associative structures in their relations with policy makers and international structures. Within the Esperanto Movement, TEJO works closely with the Universal Esperanto Association and is an observer of International League of Esperanto Teachers. Additionally, TEJO is an active member of the European Youth Forum, UNITED for Intercultural Action and the International Coordination Meeting of Youth Organisations.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1536,6 +2609,18 @@
           <t>National Youth Council - Full members</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>vlaamsejeugdraad.be/en</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The Flemish Youth Council strives for a society in which children and young people actively contribute. We do this by strenghtening and representing the voice of children, young people, youth organisations and youth councils.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1548,6 +2633,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>www.wagggs.org/en/</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The World Association of Girl Guides and Girl Scouts is the largest voluntary Movement dedicated to girls and young women in the world. The Europe Region WAGGGS supports 64 national Girl Guide and Girl Scout organisations in 41 countries and reaches more than one million young people. By working directly with girls and young women across Europe and the world, we pride ourselves with delivering high quality non-formal education programmes and international opportunities. We aim to give girls and young women dynamic, flexible and values-based training in life skills, leadership and citizenship. All of our activities and programmes fall within four broad areas of social change that contribute to our global vision of all girls and young women being valued and taking action to change the world.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1560,6 +2657,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>www.scout.org/europe</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        World Organisation of the Scout Movement is biggest world youth educational movement. Scouting provides young people with opportunities to participate in programmes, events, activities and projects that contribute to their growth as active citizens. Through these initiatives, young people become agents of positive change who inspire others to take action.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1572,6 +2681,19 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>www.youthexpressnetwork.org</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Youth Express Network and its 30 member organisations in 19 countries all work at local, regional or European level on social inclusion of young people. Since 1993, we have organised hundreds of training courses, seminars, study sessions, cross-border and mobility projects bringing together young people in vulnerable situations and social/youth workers. We have also conducted researches on youth / social issues and been trying to be the voice of young people with fewer opportunities in local, regional and European institutions, either by representing them or by supporting them to create and be part of local/national youth councils. 
+We are a fill member of the YFJ since 2019 and of the INGO Conference of the Council of Europe.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1584,6 +2706,18 @@
           <t>International Non-Governmental Youth Organisation - Observers</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>www.youngdemocrats.eu/</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The Young Democrats for Europe is the youth wing of the European Democratic Party and of Alliance of Liberals and Democrats for Europe, Parliamentary Group. It was announced on 9 May 2007, the 50th Anniversary of the Treaty of Rome, and formally established at its first conference on 22 September 2007 in Vilnius, Lithuania. The founding members are the youth wings of the seven EDP founding political parties. After 3 congresses in Brussels, Bilbao and in Paris, the YDE has 11 members in 9 European countries and partners in a dozen of other European countries.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1596,6 +2730,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>yeenet.eu/</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Youth and Environment Europe (YEE) is a platform of many European youth organisations that study nature or are active in environmental protection. These member organisations come together from 25 countries. The aim of YEE is to encourage youth to be involved in environmental protection and to provide a platform where these organisations can work together. YEE gives an opportunity to contact other European organisations, to exchange experiences and ideas and to work together. All our activities are organised and carried out by young people under 30. YEE organises and encourages all activities that can increase the knowledge, understanding and appreciation of nature and the awareness of environmental problems among young people in Europe. Our aim is to promote the commitment of youth to the principles of environmental conservation. Therefore, young people’s voluntary actions have to be stimulated for the protection and the rational use of the Earth’s resources. Since environmental problems have no borders, we act together within YEE in order to address these problems in local communities and joint activities. Within international actions, we intend to raise public awareness about environmental problems.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1608,6 +2754,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>www.yeni.org/</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The Youth of European Nationalities (YEN) was founded in 1984 as an independent youth network, and currently consists of 42 member organisations in over 19 different countries. Under the slogan "Minority Rights are Human Rights", YEN represents the interests of over 100.000 young people of autochthonous, national, ethnic and linguistic minorities in Europe. Activities of the YEN are executed and determined solely by youth. Together with its members, the YEN strives for a dynamic, multicultural, multilingual, inclusive, rights-based and forward-looking Europe.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1620,6 +2778,16 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Youthepp.eu</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1632,6 +2800,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>www.youngsocialists.eu</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Young European Socialists YES – formerly ECOSY – unites young socialists and social democrats from all over Europe to campaign and organise at the European level and to provide a forum for debate, advocacy, capacity-building and exchange for all European young socialist activists. Young European Socialists strives to be an integrated and progressive organisation at the heart of the socialist and social democratic movement and to contribute to and shape the European debate and policy. Young European Socialists works for a democratic, environmental, social, feminist and federal Europe, promotes a clear socialist and social democratic vision for its future and combats inequality, social injustice and right-wing and extremist policies. Our vision for Europe is a united democratic community based on, and globally active for, individual and collective human rights and freedoms.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1644,6 +2824,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>www.yeu-international.org/</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        YEU is currently present in 27 countries led by and for young people, promoting importance of active participation by using non-formal education (NFE) as a tool in order to provide knowledge, skills and intercultural experience for personal and social development through promotion of peace, solidarity, understanding and cooperation between the young people of the world, in a spirit of respect for human rights. Our vision is world united by shared values of peace, understanding and respecting the differences and human rights of each living being. All YEU activities happen in accordance with the values of non-discrimination, (regardless of age, gender and sexual orientation, social and cultural background, political or religious belief), volunteering, respect for human rights and environmental awareness and care. YEU is full member of European Youth Forum and Lifelong Learning Platform. We base our work on NFE methodology, intercultural learning.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1656,6 +2848,18 @@
           <t>International Non-Governmental Youth Organisation - Full members</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>www.ymcaeurope.com</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        YMCA Europe is an umbrella organization that serves 32 members and 5 cooperating YMCA movements throughout Europe. Inspired by our Christian ecumenical mission, we offer administrative support, facilitate networking and programme sharing, organize seminars and events and, in accordance with our Strategic Plan, serve to enhance and positively influence the lives of young people.
+                    </t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1666,6 +2870,18 @@
       <c r="B103" t="inlineStr">
         <is>
           <t>International Non-Governmental Youth Organisation - Full members</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>www.europeanywca.org/</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        The European YWCA was established to unite YWCA member associations in a European movement. It is a women-led, faith-based organization which seeks to model shared, intergenerational leadership, ensuring at least 25% of its leadership positions are held by young women 30 years and under. The European YWCA represents YWCAs in 27 countries in Europe, which are driven by women and girls in local communities committed to the YWCA purpose.
+                    </t>
         </is>
       </c>
     </row>
